--- a/Data/Miraflores/DatosKFC.xlsx
+++ b/Data/Miraflores/DatosKFC.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11013"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11110"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/joserodolforojasmazariegos/Documents/2do Semestre 2019/Taller/Centro_de_Investigaciones_UFM_CC/Data/Miraflores/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8A642BA2-FCE1-5846-9C1F-D8D8D48117B7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{723B5BEA-01F7-2D4A-9245-15D1CE44FEDB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="21100" windowHeight="11520" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="25360" windowHeight="17100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Viernes" sheetId="6" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="10">
   <si>
     <t>Inicio</t>
   </si>
@@ -57,9 +57,6 @@
   </si>
   <si>
     <t>Rodolfo Rojas</t>
-  </si>
-  <si>
-    <t>Muje</t>
   </si>
 </sst>
 </file>
@@ -882,7 +879,7 @@
     <filterColumn colId="3" hiddenButton="1"/>
   </autoFilter>
   <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Muje" dataDxfId="13"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Ingreso" dataDxfId="13"/>
     <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Llegada" dataDxfId="12"/>
     <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Inicio" dataDxfId="11"/>
     <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="Final" dataDxfId="10"/>
@@ -1227,9 +1224,9 @@
   <sheetPr codeName="Hoja5"/>
   <dimension ref="A1:E79"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B5" sqref="B5"/>
+      <selection pane="bottomLeft" activeCell="X62" sqref="X62"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1271,7 +1268,7 @@
     </row>
     <row r="4" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="B4" s="4" t="s">
         <v>1</v>
@@ -2370,7 +2367,7 @@
   <dimension ref="A1:D78"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="4" ySplit="3" topLeftCell="E66" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="4" ySplit="3" topLeftCell="E4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="F1" sqref="F1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
       <selection pane="bottomRight" activeCell="B5" sqref="B5"/>
@@ -3546,7 +3543,7 @@
   <sheetPr codeName="Hoja3"/>
   <dimension ref="A1:E41"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="4" topLeftCell="A27" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="D42" sqref="D42"/>
     </sheetView>
